--- a/AusPollSkew/ShyTory_PollData.xlsx
+++ b/AusPollSkew/ShyTory_PollData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\Projects\Project Nebula\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143966B6-CE67-4BB1-B827-4D022ADA2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2C81D-C09A-413F-8D0C-4FC8129EE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-158" yWindow="-158" windowWidth="29116" windowHeight="15915" xr2:uid="{5EA4DC92-CAD8-4C89-9F75-E94F536BDDD2}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G76" s="3">
         <f>IF(COUNTIFS(PastElections!$A:$A,$A76,PastElections!$B:$B,$B76)=1,IF(SUMIFS(PastElections!C:C,PastElections!$A:$A,$A76,PastElections!$B:$B,$B76)&gt;0,SUMIFS(PastElections!C:C,PastElections!$A:$A,$A76,PastElections!$B:$B,$B76),""),"")</f>
-        <v>47.1</v>
+        <v>53.2</v>
       </c>
       <c r="H76" s="3" t="str">
         <f>IF(COUNTIFS(PastElections!$A:$A,$A76,PastElections!$B:$B,$B76)=1,IF(SUMIFS(PastElections!D:D,PastElections!$A:$A,$A76,PastElections!$B:$B,$B76)&gt;0,SUMIFS(PastElections!D:D,PastElections!$A:$A,$A76,PastElections!$B:$B,$B76),""),"")</f>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="I76" s="3">
         <f t="shared" si="1"/>
-        <v>2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="J76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G77" s="3">
         <f>IF(COUNTIFS(PastElections!$A:$A,$A77,PastElections!$B:$B,$B77)=1,IF(SUMIFS(PastElections!C:C,PastElections!$A:$A,$A77,PastElections!$B:$B,$B77)&gt;0,SUMIFS(PastElections!C:C,PastElections!$A:$A,$A77,PastElections!$B:$B,$B77),""),"")</f>
-        <v>47.1</v>
+        <v>53.2</v>
       </c>
       <c r="H77" s="3" t="str">
         <f>IF(COUNTIFS(PastElections!$A:$A,$A77,PastElections!$B:$B,$B77)=1,IF(SUMIFS(PastElections!D:D,PastElections!$A:$A,$A77,PastElections!$B:$B,$B77)&gt;0,SUMIFS(PastElections!D:D,PastElections!$A:$A,$A77,PastElections!$B:$B,$B77),""),"")</f>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="I77" s="3">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="J77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5019,7 +5019,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -5506,7 +5506,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3">
-        <v>47.1</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
